--- a/第二轮建模/规划/max_range/系数与价格之比.xlsx
+++ b/第二轮建模/规划/max_range/系数与价格之比.xlsx
@@ -92,6 +92,43 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>k</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的关系</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -210,6 +247,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -241,6 +279,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>的值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -303,6 +400,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>的值（元）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -952,13 +1108,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
